--- a/DataBook/Mixed_Data_Analyst.xlsx
+++ b/DataBook/Mixed_Data_Analyst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K-Gen\Documents\CS-498\DataBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294C0C19-FDBF-4614-A87C-537EEB51A67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3300CB-4CF2-491E-9E2B-4D60931AE100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B9D12610-8305-4EDD-BEEA-3CFBD41AA1DD}"/>
   </bookViews>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C381ED41-E5F9-4684-ACF4-F784310D78D5}">
   <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q133" sqref="Q133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataBook/Mixed_Data_Analyst.xlsx
+++ b/DataBook/Mixed_Data_Analyst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K-Gen\Documents\CS-498\DataBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3300CB-4CF2-491E-9E2B-4D60931AE100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A882B10-AA64-48BC-95AE-D5B771AF084D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B9D12610-8305-4EDD-BEEA-3CFBD41AA1DD}"/>
+    <workbookView xWindow="5010" yWindow="2940" windowWidth="28800" windowHeight="15345" xr2:uid="{B9D12610-8305-4EDD-BEEA-3CFBD41AA1DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -851,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C381ED41-E5F9-4684-ACF4-F784310D78D5}">
-  <dimension ref="A1:B134"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q133" sqref="Q133"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,6 +1935,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
